--- a/output/init_mle/arg.xlsx
+++ b/output/init_mle/arg.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7327146392516239</v>
+        <v>0.04516946761048802</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2672853607483761</v>
+        <v>0.954830532389512</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2592079088230789</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7407920911769211</v>
+        <v>0.4681070501011722</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005820336930859041</v>
+        <v>0.2881009346721722</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.005633298282043903</v>
+        <v>0.9573137297535173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001037540051688286</v>
+        <v>0.003793474461401892</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.003443152332891716</v>
+        <v>-0.182841896762075</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.005512817638119972</v>
+        <v>0.04342216413236551</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.00691035430850152</v>
+        <v>0.1161186999199227</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.002079328588714266</v>
+        <v>0.03546222913765353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.002132638675892028</v>
+        <v>0.0208025150537584</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01354416430489959</v>
+        <v>-0.01453291445309482</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006137880485461119</v>
+        <v>0.01291373387125438</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0008947199250674965</v>
+        <v>0.01034576900880645</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.457890836703411e-05</v>
+        <v>-0.0007567976048722299</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01478764500392567</v>
+        <v>0.006707027200054227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0003188005417744915</v>
+        <v>0.004474778938466107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001499923573535484</v>
+        <v>0.000139007160752202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0002432612743012492</v>
+        <v>0.01301540788487785</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0003144342828668649</v>
+        <v>0.007207039396424328</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,87 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0002335720567246073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.0003414684891224351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.0005917639220663239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.0002085443510076517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.01092968392684567</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.0009559806963082904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0.002072743606203304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0.002050051339761512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0.001519210238766846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0.001539014143255664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0.0009538610990968902</v>
+        <v>0.002417732236671512</v>
       </c>
     </row>
   </sheetData>
